--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -866,43 +866,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.08203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.71875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="45.6484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,122 +265,126 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Parameters.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Parameters.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Parameters.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Parameters.parameter</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Operation Parameter</t>
+  </si>
+  <si>
+    <t>A parameter passed to or received from the operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:name}
+</t>
+  </si>
+  <si>
+    <t>The specific parameters to specify BC Metadata.</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-1:A parameter must have one and only one of (value, resource, part) {(part.exists() and value.empty() and resource.empty()) or (part.empty() and (value.exists() xor resource.exists()))}</t>
+  </si>
+  <si>
+    <t>Parameters.parameter.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Parameters.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Parameters.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Parameters.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Parameters.parameter</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Operation Parameter</t>
-  </si>
-  <si>
-    <t>A parameter passed to or received from the operation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:name}
-</t>
-  </si>
-  <si>
-    <t>The specific parameters to specify BC Metadata.</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-1:A parameter must have one and only one of (value, resource, part) {(part.exists() and value.empty() and resource.empty()) or (part.empty() and (value.exists() xor resource.exists()))}</t>
-  </si>
-  <si>
-    <t>Parameters.parameter.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1669,13 +1673,13 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1726,7 +1730,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -1749,11 +1753,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1772,16 +1776,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1831,7 +1835,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -1843,7 +1847,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -1854,11 +1858,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1877,19 +1881,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -1938,7 +1942,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -1950,18 +1954,18 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1984,13 +1988,13 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2041,7 +2045,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>81</v>
@@ -2064,7 +2068,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2087,13 +2091,13 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2144,7 +2148,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2153,7 +2157,7 @@
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>93</v>
@@ -2167,7 +2171,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2190,16 +2194,16 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2249,16 +2253,16 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2272,7 +2276,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2298,13 +2302,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2354,7 +2358,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2380,7 +2384,7 @@
         <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -2505,13 +2509,13 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2562,7 +2566,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -2585,11 +2589,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2608,16 +2612,16 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2667,7 +2671,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -2679,7 +2683,7 @@
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -2690,11 +2694,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2713,19 +2717,19 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -2774,7 +2778,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -2786,18 +2790,18 @@
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2820,13 +2824,13 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2838,7 +2842,7 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -2877,7 +2881,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>81</v>
@@ -2900,7 +2904,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2923,13 +2927,13 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2968,17 +2972,17 @@
         <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -2987,7 +2991,7 @@
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>93</v>
@@ -3001,10 +3005,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>73</v>
@@ -3026,13 +3030,13 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3083,7 +3087,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3092,7 +3096,7 @@
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>93</v>
@@ -3106,7 +3110,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3129,16 +3133,16 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3188,16 +3192,16 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
@@ -3211,7 +3215,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3237,13 +3241,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3293,7 +3297,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3319,7 +3323,7 @@
         <v>109</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>73</v>
@@ -3444,13 +3448,13 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3501,7 +3505,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3524,11 +3528,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3547,16 +3551,16 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3606,7 +3610,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -3618,7 +3622,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -3629,11 +3633,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3652,19 +3656,19 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -3713,7 +3717,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -3725,18 +3729,18 @@
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3759,13 +3763,13 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3777,7 +3781,7 @@
         <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>73</v>
@@ -3816,7 +3820,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>81</v>
@@ -3839,7 +3843,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3862,13 +3866,13 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3907,17 +3911,17 @@
         <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -3926,7 +3930,7 @@
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>93</v>
@@ -3940,10 +3944,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
@@ -3965,13 +3969,13 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4022,7 +4026,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4031,7 +4035,7 @@
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>93</v>
@@ -4045,7 +4049,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4068,16 +4072,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4127,16 +4131,16 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
@@ -4150,7 +4154,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4176,13 +4180,13 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4232,7 +4236,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4258,7 +4262,7 @@
         <v>109</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>73</v>
@@ -4383,13 +4387,13 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4440,7 +4444,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4463,11 +4467,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4486,16 +4490,16 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4545,7 +4549,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -4557,7 +4561,7 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -4568,11 +4572,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4591,19 +4595,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -4652,7 +4656,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -4664,18 +4668,18 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4698,13 +4702,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4716,7 +4720,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -4755,7 +4759,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>81</v>
@@ -4778,7 +4782,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4801,13 +4805,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4846,17 +4850,17 @@
         <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -4865,7 +4869,7 @@
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>93</v>
@@ -4879,10 +4883,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>73</v>
@@ -4904,13 +4908,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4961,7 +4965,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -4970,7 +4974,7 @@
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>93</v>
@@ -4984,7 +4988,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5007,16 +5011,16 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5066,16 +5070,16 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
@@ -5089,7 +5093,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5115,13 +5119,13 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5171,7 +5175,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5197,7 +5201,7 @@
         <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>73</v>
@@ -5322,13 +5326,13 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5379,7 +5383,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -5402,11 +5406,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5425,16 +5429,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5484,7 +5488,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -5496,7 +5500,7 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -5507,11 +5511,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5530,19 +5534,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -5591,7 +5595,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -5603,18 +5607,18 @@
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5637,13 +5641,13 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5655,7 +5659,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>73</v>
@@ -5694,7 +5698,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>81</v>
@@ -5717,7 +5721,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5740,13 +5744,13 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5785,17 +5789,17 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -5804,7 +5808,7 @@
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>93</v>
@@ -5818,10 +5822,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>73</v>
@@ -5843,13 +5847,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5900,7 +5904,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -5909,7 +5913,7 @@
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>93</v>
@@ -5923,7 +5927,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5946,16 +5950,16 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6005,16 +6009,16 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>73</v>
@@ -6028,7 +6032,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6054,13 +6058,13 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6110,7 +6114,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6136,7 +6140,7 @@
         <v>109</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>73</v>
@@ -6261,13 +6265,13 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6318,7 +6322,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -6341,11 +6345,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6364,16 +6368,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6423,7 +6427,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -6435,7 +6439,7 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -6446,11 +6450,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -6469,19 +6473,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -6530,7 +6534,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -6542,18 +6546,18 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6576,13 +6580,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6594,7 +6598,7 @@
         <v>73</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>73</v>
@@ -6633,7 +6637,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>81</v>
@@ -6656,7 +6660,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6679,13 +6683,13 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6724,17 +6728,17 @@
         <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -6743,7 +6747,7 @@
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>93</v>
@@ -6757,10 +6761,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>73</v>
@@ -6782,13 +6786,13 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6839,7 +6843,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -6848,7 +6852,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -6862,7 +6866,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6885,16 +6889,16 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -6944,16 +6948,16 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>73</v>
@@ -6967,7 +6971,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6993,13 +6997,13 @@
         <v>73</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7049,7 +7053,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7075,7 +7079,7 @@
         <v>109</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
@@ -7200,13 +7204,13 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7257,7 +7261,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -7280,11 +7284,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7303,16 +7307,16 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7362,7 +7366,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -7374,7 +7378,7 @@
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -7385,11 +7389,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7408,19 +7412,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
@@ -7469,7 +7473,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -7481,18 +7485,18 @@
         <v>73</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7515,13 +7519,13 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7533,7 +7537,7 @@
         <v>73</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>73</v>
@@ -7572,7 +7576,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>81</v>
@@ -7595,7 +7599,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7618,13 +7622,13 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7675,7 +7679,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -7684,7 +7688,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -7698,7 +7702,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7721,16 +7725,16 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -7780,16 +7784,16 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>73</v>
@@ -7803,7 +7807,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7829,13 +7833,13 @@
         <v>73</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -7885,7 +7889,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="224">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Operation Request or Response</t>
@@ -1215,16 +1219,16 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1289,18 +1293,18 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1311,7 +1315,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1320,19 +1324,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1382,13 +1386,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1405,10 +1409,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1419,7 +1423,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1428,16 +1432,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1488,19 +1492,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1511,10 +1515,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1525,28 +1529,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1596,19 +1600,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1619,10 +1623,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1633,7 +1637,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1645,16 +1649,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1680,13 +1684,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1704,19 +1708,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -1727,10 +1731,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1738,7 +1742,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -1750,16 +1754,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1798,19 +1802,19 @@
         <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1822,7 +1826,7 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -1833,10 +1837,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1847,7 +1851,7 @@
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1859,13 +1863,13 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1916,13 +1920,13 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>74</v>
@@ -1934,19 +1938,19 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1965,16 +1969,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2024,7 +2028,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2036,25 +2040,25 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2067,25 +2071,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2134,7 +2138,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2146,21 +2150,21 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2168,10 +2172,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2180,16 +2184,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2240,19 +2244,19 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
@@ -2263,10 +2267,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2277,7 +2281,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2286,16 +2290,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2346,19 +2350,19 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
@@ -2369,10 +2373,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2383,7 +2387,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2392,19 +2396,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2454,16 +2458,16 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -2477,10 +2481,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2500,19 +2504,19 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2562,7 +2566,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2574,7 +2578,7 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -2585,41 +2589,41 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2670,7 +2674,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2682,7 +2686,7 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -2693,10 +2697,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2707,7 +2711,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2719,13 +2723,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2776,13 +2780,13 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
@@ -2794,19 +2798,19 @@
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2825,16 +2829,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2884,7 +2888,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2896,25 +2900,25 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2927,25 +2931,25 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -2994,7 +2998,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3006,21 +3010,21 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3028,28 +3032,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3061,7 +3065,7 @@
         <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>74</v>
@@ -3100,19 +3104,19 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3123,10 +3127,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3134,10 +3138,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3146,16 +3150,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3194,29 +3198,29 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3227,41 +3231,41 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3312,19 +3316,19 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3335,10 +3339,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3358,19 +3362,19 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3420,16 +3424,16 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
@@ -3443,10 +3447,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3466,19 +3470,19 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3528,7 +3532,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3540,7 +3544,7 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -3551,41 +3555,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3636,7 +3640,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3648,7 +3652,7 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -3659,10 +3663,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3673,7 +3677,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3685,13 +3689,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3742,13 +3746,13 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
@@ -3760,19 +3764,19 @@
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -3791,16 +3795,16 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3850,7 +3854,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -3862,25 +3866,25 @@
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -3893,25 +3897,25 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -3960,7 +3964,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -3972,21 +3976,21 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3994,28 +3998,28 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4027,7 +4031,7 @@
         <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>74</v>
@@ -4066,19 +4070,19 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4089,10 +4093,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4100,10 +4104,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4112,16 +4116,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4160,29 +4164,29 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4193,41 +4197,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4278,19 +4282,19 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4301,10 +4305,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4324,19 +4328,19 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4386,16 +4390,16 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>74</v>
@@ -4409,10 +4413,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4432,19 +4436,19 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4494,7 +4498,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4506,7 +4510,7 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4517,13 +4521,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>74</v>
@@ -4533,25 +4537,25 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4602,7 +4606,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -4614,7 +4618,7 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -4625,10 +4629,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4639,7 +4643,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -4651,13 +4655,13 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4708,13 +4712,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -4726,19 +4730,19 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -4757,16 +4761,16 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4816,7 +4820,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -4828,25 +4832,25 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -4859,25 +4863,25 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -4926,7 +4930,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -4938,21 +4942,21 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4960,28 +4964,28 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4993,7 +4997,7 @@
         <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>74</v>
@@ -5032,19 +5036,19 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5055,10 +5059,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5069,7 +5073,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5078,16 +5082,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5126,29 +5130,29 @@
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5159,13 +5163,13 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -5175,25 +5179,25 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5244,19 +5248,19 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5267,10 +5271,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5290,19 +5294,19 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5352,16 +5356,16 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
@@ -5375,10 +5379,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5398,19 +5402,19 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5460,7 +5464,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5472,7 +5476,7 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -5483,41 +5487,41 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5568,7 +5572,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -5580,7 +5584,7 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -5591,10 +5595,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5605,7 +5609,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -5617,13 +5621,13 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5674,13 +5678,13 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
@@ -5692,19 +5696,19 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -5723,16 +5727,16 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5782,7 +5786,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -5794,25 +5798,25 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -5825,25 +5829,25 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -5892,7 +5896,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -5904,21 +5908,21 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5926,28 +5930,28 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5959,7 +5963,7 @@
         <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>74</v>
@@ -5998,19 +6002,19 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6021,10 +6025,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6032,10 +6036,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6044,16 +6048,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6092,29 +6096,29 @@
         <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6125,41 +6129,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6210,19 +6214,19 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6233,10 +6237,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6256,19 +6260,19 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6318,16 +6322,16 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -6341,10 +6345,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6364,19 +6368,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6426,7 +6430,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6438,7 +6442,7 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -6449,13 +6453,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -6465,25 +6469,25 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6534,7 +6538,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -6546,7 +6550,7 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -6557,10 +6561,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6571,7 +6575,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -6583,13 +6587,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6640,13 +6644,13 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
@@ -6658,19 +6662,19 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -6689,16 +6693,16 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -6748,7 +6752,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -6760,25 +6764,25 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -6791,25 +6795,25 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -6858,7 +6862,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -6870,21 +6874,21 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6892,28 +6896,28 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6925,7 +6929,7 @@
         <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>74</v>
@@ -6964,19 +6968,19 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -6987,10 +6991,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7001,7 +7005,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7010,16 +7014,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7058,29 +7062,29 @@
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -7091,13 +7095,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -7107,25 +7111,25 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7176,19 +7180,19 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -7199,10 +7203,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7222,19 +7226,19 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7284,16 +7288,16 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>74</v>
@@ -7307,10 +7311,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7330,19 +7334,19 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7392,7 +7396,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -7404,7 +7408,7 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -7415,13 +7419,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>74</v>
@@ -7431,25 +7435,25 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7500,7 +7504,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -7512,7 +7516,7 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -7523,10 +7527,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7537,7 +7541,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -7549,13 +7553,13 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7606,13 +7610,13 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
@@ -7624,19 +7628,19 @@
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -7655,16 +7659,16 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -7714,7 +7718,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -7726,25 +7730,25 @@
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -7757,25 +7761,25 @@
         <v>74</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -7824,7 +7828,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -7836,21 +7840,21 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7858,28 +7862,28 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7891,7 +7895,7 @@
         <v>74</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>74</v>
@@ -7930,19 +7934,19 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -7953,10 +7957,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7976,16 +7980,16 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8036,19 +8040,19 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -8059,10 +8063,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8070,31 +8074,31 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8144,16 +8148,16 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
@@ -8167,10 +8171,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8190,19 +8194,19 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8252,7 +8256,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8264,7 +8268,7 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="243">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -582,6 +582,64 @@
   </si>
   <si>
     <t>Parameters.parameter:messageDateTime.part</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly</t>
+  </si>
+  <si>
+    <t>identifiersOnly</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.id</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.extension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.modifierExtension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.name</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.resource</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.part</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.id</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.extension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.modifierExtension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.name</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.value[x]</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.resource</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.part</t>
   </si>
   <si>
     <t>Parameters.parameter:requestMessageId</t>
@@ -1027,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5085,7 +5143,7 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>145</v>
@@ -5130,14 +5188,16 @@
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>143</v>
@@ -5163,14 +5223,12 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5179,10 +5237,10 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>74</v>
@@ -5191,15 +5249,17 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5248,7 +5308,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5260,7 +5320,7 @@
         <v>147</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5271,10 +5331,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5297,16 +5357,16 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5356,19 +5416,19 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -5379,12 +5439,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
       </c>
@@ -5393,10 +5455,10 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>74</v>
@@ -5405,17 +5467,15 @@
         <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -5464,7 +5524,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5476,7 +5536,7 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -5487,41 +5547,39 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5572,44 +5630,44 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -5621,15 +5679,17 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -5678,19 +5738,19 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -5701,14 +5761,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -5721,24 +5781,26 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -5786,7 +5848,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -5804,51 +5866,47 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -5857,7 +5915,7 @@
         <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>74</v>
@@ -5896,33 +5954,33 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5930,13 +5988,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>74</v>
@@ -5945,13 +6003,13 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5963,7 +6021,7 @@
         <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>74</v>
@@ -6002,16 +6060,16 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>95</v>
@@ -6025,10 +6083,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6036,10 +6094,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6051,15 +6109,17 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6096,17 +6156,19 @@
         <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6118,7 +6180,7 @@
         <v>147</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6132,23 +6194,21 @@
         <v>200</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>74</v>
@@ -6157,15 +6217,17 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6214,16 +6276,16 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>95</v>
@@ -6237,12 +6299,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6251,10 +6315,10 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>74</v>
@@ -6263,17 +6327,15 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -6322,19 +6384,19 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6348,7 +6410,7 @@
         <v>203</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6359,7 +6421,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -6368,20 +6430,18 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -6430,25 +6490,25 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -6456,40 +6516,40 @@
         <v>204</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -6538,7 +6598,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -6550,53 +6610,57 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -6644,66 +6708,64 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -6713,7 +6775,7 @@
         <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>74</v>
@@ -6752,69 +6814,65 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -6850,53 +6908,53 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>83</v>
@@ -6914,10 +6972,10 @@
         <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6929,7 +6987,7 @@
         <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>74</v>
@@ -6968,16 +7026,16 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>95</v>
@@ -6991,10 +7049,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7005,7 +7063,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7017,15 +7075,17 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7062,17 +7122,19 @@
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7084,7 +7146,7 @@
         <v>147</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -7095,14 +7157,12 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7111,10 +7171,10 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>74</v>
@@ -7123,15 +7183,17 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7180,16 +7242,16 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>95</v>
@@ -7203,24 +7265,26 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="B58" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>74</v>
@@ -7229,17 +7293,15 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -7288,19 +7350,19 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -7314,7 +7376,7 @@
         <v>213</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7325,7 +7387,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -7334,20 +7396,18 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
@@ -7396,25 +7456,25 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -7422,40 +7482,40 @@
         <v>214</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -7504,7 +7564,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -7516,53 +7576,57 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -7610,66 +7674,64 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -7679,7 +7741,7 @@
         <v>74</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>74</v>
@@ -7718,69 +7780,65 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
       </c>
@@ -7816,37 +7874,35 @@
         <v>74</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" hidden="true">
@@ -7854,9 +7910,11 @@
         <v>219</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>74</v>
       </c>
@@ -7877,13 +7935,13 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7895,7 +7953,7 @@
         <v>74</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>74</v>
@@ -7934,16 +7992,16 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>95</v>
@@ -7957,10 +8015,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7983,15 +8041,17 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -8040,7 +8100,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8052,7 +8112,7 @@
         <v>147</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -8063,10 +8123,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8074,13 +8134,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>74</v>
@@ -8089,16 +8149,16 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8148,19 +8208,19 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -8174,9 +8234,11 @@
         <v>223</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8185,10 +8247,10 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>74</v>
@@ -8197,17 +8259,15 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -8256,7 +8316,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8268,17 +8328,1735 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AK67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AK71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AC72" s="2"/>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL67">
+  <autoFilter ref="A1:AL83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8288,7 +10066,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="205">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -414,6 +414,19 @@
     <t>Parameters.parameter:messageId.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageId.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
     <t>Parameters.parameter:messageId.resource</t>
   </si>
   <si>
@@ -445,13 +458,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Parameters.parameter:messageDateTime.value[x]:valueDateTime</t>
   </si>
   <si>
@@ -544,9 +550,6 @@
   </si>
   <si>
     <t>Parameters.parameter:requestMessageId.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
   </si>
   <si>
     <t>Parameters.parameter:requestMessageId.resource</t>
@@ -968,7 +971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL81"/>
+  <dimension ref="A1:AL82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2968,7 +2971,7 @@
         <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>36</v>
@@ -3022,16 +3025,14 @@
         <v>36</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>105</v>
@@ -3057,24 +3058,26 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>36</v>
@@ -3083,17 +3086,15 @@
         <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>36</v>
@@ -3142,7 +3143,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3154,7 +3155,7 @@
         <v>109</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
@@ -3165,10 +3166,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3191,16 +3192,16 @@
         <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3250,19 +3251,19 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>36</v>
@@ -3273,26 +3274,24 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
@@ -3301,15 +3300,17 @@
         <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3358,7 +3359,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -3370,7 +3371,7 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>36</v>
@@ -3381,39 +3382,41 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3464,44 +3467,44 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -3513,17 +3516,15 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>36</v>
@@ -3572,19 +3573,19 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>36</v>
@@ -3595,14 +3596,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3615,26 +3616,24 @@
         <v>36</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>36</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -3700,47 +3699,51 @@
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>36</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>36</v>
@@ -3788,33 +3791,33 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3828,7 +3831,7 @@
         <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>36</v>
@@ -3837,13 +3840,13 @@
         <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3855,7 +3858,7 @@
         <v>36</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>36</v>
@@ -3882,26 +3885,28 @@
         <v>36</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>57</v>
@@ -3920,9 +3925,7 @@
       <c r="B28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>36</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>36</v>
@@ -3943,7 +3946,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>107</v>
@@ -3988,16 +3991,14 @@
         <v>36</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>105</v>
@@ -4026,21 +4027,23 @@
         <v>140</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
@@ -4049,17 +4052,15 @@
         <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>36</v>
@@ -4108,7 +4109,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -4120,7 +4121,7 @@
         <v>109</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>36</v>
@@ -4131,10 +4132,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4157,16 +4158,16 @@
         <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4216,19 +4217,19 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>36</v>
@@ -4239,14 +4240,12 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>36</v>
       </c>
@@ -4255,10 +4254,10 @@
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>36</v>
@@ -4267,15 +4266,17 @@
         <v>46</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>36</v>
@@ -4324,7 +4325,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4336,7 +4337,7 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>36</v>
@@ -4350,9 +4351,11 @@
         <v>144</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>36</v>
       </c>
@@ -4364,22 +4367,22 @@
         <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4430,44 +4433,44 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -4479,17 +4482,15 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>36</v>
@@ -4538,19 +4539,19 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
@@ -4561,14 +4562,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4581,26 +4582,24 @@
         <v>36</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>36</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -4666,47 +4665,51 @@
         <v>36</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>36</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>36</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>36</v>
@@ -4754,33 +4757,33 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4788,13 +4791,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>36</v>
@@ -4803,13 +4806,13 @@
         <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4821,7 +4824,7 @@
         <v>36</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>36</v>
@@ -4860,16 +4863,16 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>57</v>
@@ -4886,7 +4889,7 @@
         <v>150</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4897,7 +4900,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -4909,17 +4912,15 @@
         <v>46</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>36</v>
@@ -4968,7 +4969,7 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
@@ -4980,7 +4981,7 @@
         <v>109</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
@@ -4991,10 +4992,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5017,16 +5018,16 @@
         <v>46</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5076,19 +5077,19 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
@@ -5099,14 +5100,12 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>36</v>
       </c>
@@ -5115,10 +5114,10 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>36</v>
@@ -5127,15 +5126,17 @@
         <v>46</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>36</v>
@@ -5184,7 +5185,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -5196,7 +5197,7 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
@@ -5210,9 +5211,11 @@
         <v>154</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>36</v>
       </c>
@@ -5224,22 +5227,22 @@
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5290,44 +5293,44 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>36</v>
@@ -5339,17 +5342,15 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>36</v>
@@ -5398,19 +5399,19 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
@@ -5421,14 +5422,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5441,26 +5442,24 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O42" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>36</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -5526,47 +5525,51 @@
         <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>36</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>36</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>36</v>
@@ -5614,33 +5617,33 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5648,13 +5651,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>36</v>
@@ -5663,13 +5666,13 @@
         <v>46</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5681,7 +5684,7 @@
         <v>36</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>36</v>
@@ -5720,16 +5723,16 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>57</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5757,7 +5760,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -5769,17 +5772,15 @@
         <v>46</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>36</v>
@@ -5828,7 +5829,7 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
@@ -5840,7 +5841,7 @@
         <v>109</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
@@ -5851,10 +5852,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5877,16 +5878,16 @@
         <v>46</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -5936,19 +5937,19 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -5959,14 +5960,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>36</v>
       </c>
@@ -5975,10 +5974,10 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>36</v>
@@ -5987,15 +5986,17 @@
         <v>46</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>36</v>
@@ -6044,7 +6045,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -6056,7 +6057,7 @@
         <v>36</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>36</v>
@@ -6070,9 +6071,11 @@
         <v>163</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>36</v>
       </c>
@@ -6084,22 +6087,22 @@
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6150,44 +6153,44 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -6199,17 +6202,15 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>36</v>
@@ -6258,19 +6259,19 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>36</v>
@@ -6281,14 +6282,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6301,26 +6302,24 @@
         <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O50" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>36</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -6386,47 +6385,51 @@
         <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>36</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>36</v>
@@ -6474,33 +6477,33 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6508,13 +6511,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>36</v>
@@ -6526,10 +6529,10 @@
         <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6541,7 +6544,7 @@
         <v>36</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>36</v>
@@ -6568,26 +6571,28 @@
         <v>36</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>57</v>
@@ -6601,14 +6606,12 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>36</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>36</v>
@@ -6674,16 +6677,14 @@
         <v>36</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>105</v>
@@ -6712,9 +6713,11 @@
         <v>170</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>36</v>
       </c>
@@ -6723,10 +6726,10 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>36</v>
@@ -6735,17 +6738,15 @@
         <v>46</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>36</v>
@@ -6794,7 +6795,7 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
@@ -6806,7 +6807,7 @@
         <v>109</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>36</v>
@@ -6820,7 +6821,7 @@
         <v>171</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6843,16 +6844,16 @@
         <v>46</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -6902,19 +6903,19 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>36</v>
@@ -6928,23 +6929,21 @@
         <v>172</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>36</v>
@@ -6953,15 +6952,17 @@
         <v>46</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>36</v>
@@ -7010,7 +7011,7 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
@@ -7022,7 +7023,7 @@
         <v>36</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>36</v>
@@ -7033,39 +7034,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="B57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7116,25 +7119,25 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -7142,18 +7145,18 @@
         <v>175</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>36</v>
@@ -7165,17 +7168,15 @@
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>36</v>
@@ -7224,19 +7225,19 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
@@ -7250,11 +7251,11 @@
         <v>176</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7267,26 +7268,24 @@
         <v>36</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>36</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
@@ -7352,7 +7351,7 @@
         <v>36</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -7360,39 +7359,43 @@
         <v>177</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>36</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>36</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>36</v>
@@ -7440,25 +7443,25 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -7466,7 +7469,7 @@
         <v>178</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7480,7 +7483,7 @@
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>36</v>
@@ -7489,13 +7492,13 @@
         <v>46</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7507,7 +7510,7 @@
         <v>36</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>36</v>
@@ -7534,26 +7537,28 @@
         <v>36</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>57</v>
@@ -7567,14 +7572,12 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>36</v>
       </c>
@@ -7586,7 +7589,7 @@
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>36</v>
@@ -7595,7 +7598,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>107</v>
@@ -7640,16 +7643,14 @@
         <v>36</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>105</v>
@@ -7675,24 +7676,26 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="B63" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>36</v>
@@ -7701,17 +7704,15 @@
         <v>46</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>36</v>
@@ -7760,7 +7761,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
@@ -7772,7 +7773,7 @@
         <v>109</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>36</v>
@@ -7786,7 +7787,7 @@
         <v>183</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7809,16 +7810,16 @@
         <v>46</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7868,19 +7869,19 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
@@ -7894,11 +7895,9 @@
         <v>184</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>36</v>
       </c>
@@ -7907,10 +7906,10 @@
         <v>37</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>36</v>
@@ -7919,15 +7918,17 @@
         <v>46</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>36</v>
@@ -7976,7 +7977,7 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
@@ -7988,7 +7989,7 @@
         <v>36</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>36</v>
@@ -7999,12 +8000,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>36</v>
       </c>
@@ -8016,22 +8019,22 @@
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8082,25 +8085,25 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -8108,18 +8111,18 @@
         <v>187</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -8131,17 +8134,15 @@
         <v>36</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>36</v>
@@ -8190,19 +8191,19 @@
         <v>36</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>36</v>
@@ -8216,11 +8217,11 @@
         <v>188</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8233,26 +8234,24 @@
         <v>36</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O68" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>36</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>36</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
@@ -8318,7 +8317,7 @@
         <v>36</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -8326,39 +8325,43 @@
         <v>189</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>36</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>36</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>36</v>
@@ -8406,25 +8409,25 @@
         <v>36</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -8432,7 +8435,7 @@
         <v>190</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8440,13 +8443,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>36</v>
@@ -8455,13 +8458,13 @@
         <v>46</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8473,7 +8476,7 @@
         <v>36</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>36</v>
@@ -8500,26 +8503,28 @@
         <v>36</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC70" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>57</v>
@@ -8538,9 +8543,7 @@
       <c r="B71" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>36</v>
       </c>
@@ -8552,7 +8555,7 @@
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>36</v>
@@ -8561,7 +8564,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>107</v>
@@ -8606,16 +8609,14 @@
         <v>36</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>105</v>
@@ -8644,9 +8645,11 @@
         <v>192</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>36</v>
       </c>
@@ -8655,10 +8658,10 @@
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>36</v>
@@ -8667,17 +8670,15 @@
         <v>46</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>36</v>
@@ -8726,7 +8727,7 @@
         <v>36</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
@@ -8738,7 +8739,7 @@
         <v>109</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>36</v>
@@ -8752,7 +8753,7 @@
         <v>193</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8775,16 +8776,16 @@
         <v>46</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -8834,19 +8835,19 @@
         <v>36</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>36</v>
@@ -8860,11 +8861,9 @@
         <v>194</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>36</v>
       </c>
@@ -8873,10 +8872,10 @@
         <v>37</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>36</v>
@@ -8885,15 +8884,17 @@
         <v>46</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>36</v>
@@ -8942,7 +8943,7 @@
         <v>36</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -8954,7 +8955,7 @@
         <v>36</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>36</v>
@@ -8965,12 +8966,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="B75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>36</v>
       </c>
@@ -8982,22 +8985,22 @@
         <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9048,25 +9051,25 @@
         <v>36</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -9074,18 +9077,18 @@
         <v>197</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>36</v>
@@ -9097,17 +9100,15 @@
         <v>36</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>36</v>
@@ -9156,19 +9157,19 @@
         <v>36</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>36</v>
@@ -9182,11 +9183,11 @@
         <v>198</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -9199,26 +9200,24 @@
         <v>36</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O77" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>36</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>36</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
@@ -9284,7 +9283,7 @@
         <v>36</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" hidden="true">
@@ -9292,39 +9291,43 @@
         <v>199</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>36</v>
       </c>
@@ -9333,7 +9336,7 @@
         <v>36</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>36</v>
@@ -9372,25 +9375,25 @@
         <v>36</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -9398,7 +9401,7 @@
         <v>200</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9406,13 +9409,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>36</v>
@@ -9421,13 +9424,13 @@
         <v>46</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9439,7 +9442,7 @@
         <v>36</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>36</v>
@@ -9478,16 +9481,16 @@
         <v>36</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>57</v>
@@ -9504,7 +9507,7 @@
         <v>201</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9512,13 +9515,13 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>36</v>
@@ -9527,17 +9530,15 @@
         <v>46</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>36</v>
@@ -9586,7 +9587,7 @@
         <v>36</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -9598,7 +9599,7 @@
         <v>109</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>36</v>
@@ -9609,10 +9610,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9620,13 +9621,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>36</v>
@@ -9635,16 +9636,16 @@
         <v>46</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -9694,29 +9695,137 @@
         <v>36</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH81" t="s" s="2">
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH82" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AI81" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
+      <c r="AI82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AK81" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AK82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL81">
+  <autoFilter ref="A1:AL82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9726,7 +9835,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="204">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -414,6 +414,37 @@
     <t>Parameters.parameter:messageId.value[x]</t>
   </si>
   <si>
+    <t>Parameters.parameter:messageId.resource</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageId.part</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageDateTime</t>
+  </si>
+  <si>
+    <t>messageDateTime</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageDateTime.id</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageDateTime.extension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageDateTime.modifierExtension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageDateTime.name</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:messageDateTime.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -421,43 +452,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Parameters.parameter:messageId.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageId.resource</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageId.part</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime</t>
-  </si>
-  <si>
-    <t>messageDateTime</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.id</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.extension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.modifierExtension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.name</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Parameters.parameter:messageDateTime.value[x]:valueDateTime</t>
   </si>
   <si>
@@ -550,6 +544,9 @@
   </si>
   <si>
     <t>Parameters.parameter:requestMessageId.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
   </si>
   <si>
     <t>Parameters.parameter:requestMessageId.resource</t>
@@ -971,7 +968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL82"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2971,7 +2968,7 @@
         <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>36</v>
@@ -3025,14 +3022,16 @@
         <v>36</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>105</v>
@@ -3058,26 +3057,24 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>36</v>
@@ -3086,15 +3083,17 @@
         <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>36</v>
@@ -3143,7 +3142,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3155,7 +3154,7 @@
         <v>109</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
@@ -3166,10 +3165,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3192,16 +3191,16 @@
         <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3251,19 +3250,19 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>36</v>
@@ -3274,24 +3273,26 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
@@ -3300,17 +3301,15 @@
         <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3359,7 +3358,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -3371,7 +3370,7 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>36</v>
@@ -3382,41 +3381,39 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3467,44 +3464,44 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -3516,15 +3513,17 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>36</v>
@@ -3573,19 +3572,19 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>36</v>
@@ -3596,14 +3595,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3616,24 +3615,26 @@
         <v>36</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>36</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -3699,51 +3700,47 @@
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>36</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>36</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>36</v>
@@ -3791,33 +3788,33 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3831,7 +3828,7 @@
         <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>36</v>
@@ -3840,13 +3837,13 @@
         <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3858,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>36</v>
@@ -3885,28 +3882,26 @@
         <v>36</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>57</v>
@@ -3925,7 +3920,9 @@
       <c r="B28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>36</v>
       </c>
@@ -3937,7 +3934,7 @@
         <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>36</v>
@@ -3946,7 +3943,7 @@
         <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>107</v>
@@ -3991,14 +3988,16 @@
         <v>36</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>105</v>
@@ -4027,23 +4026,21 @@
         <v>140</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
@@ -4052,15 +4049,17 @@
         <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>36</v>
@@ -4109,7 +4108,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -4121,7 +4120,7 @@
         <v>109</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>36</v>
@@ -4132,10 +4131,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4158,16 +4157,16 @@
         <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4217,19 +4216,19 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>36</v>
@@ -4240,12 +4239,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>36</v>
       </c>
@@ -4254,10 +4255,10 @@
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>36</v>
@@ -4266,17 +4267,15 @@
         <v>46</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>36</v>
@@ -4325,7 +4324,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4337,7 +4336,7 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>36</v>
@@ -4351,11 +4350,9 @@
         <v>144</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>36</v>
       </c>
@@ -4367,22 +4364,22 @@
         <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4433,44 +4430,44 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -4482,15 +4479,17 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>36</v>
@@ -4539,19 +4538,19 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
@@ -4562,14 +4561,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4582,24 +4581,26 @@
         <v>36</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>36</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -4665,51 +4666,47 @@
         <v>36</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>36</v>
       </c>
@@ -4718,7 +4715,7 @@
         <v>36</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>36</v>
@@ -4757,33 +4754,33 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4791,13 +4788,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>36</v>
@@ -4806,13 +4803,13 @@
         <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4824,7 +4821,7 @@
         <v>36</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>36</v>
@@ -4863,16 +4860,16 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>57</v>
@@ -4889,7 +4886,7 @@
         <v>150</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4900,7 +4897,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -4912,15 +4909,17 @@
         <v>46</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>36</v>
@@ -4969,7 +4968,7 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
@@ -4981,7 +4980,7 @@
         <v>109</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
@@ -4992,10 +4991,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5018,16 +5017,16 @@
         <v>46</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5077,19 +5076,19 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
@@ -5100,12 +5099,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>36</v>
       </c>
@@ -5114,10 +5115,10 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>36</v>
@@ -5126,17 +5127,15 @@
         <v>46</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>36</v>
@@ -5185,7 +5184,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -5197,7 +5196,7 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
@@ -5211,11 +5210,9 @@
         <v>154</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>36</v>
       </c>
@@ -5227,22 +5224,22 @@
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5293,44 +5290,44 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>36</v>
@@ -5342,15 +5339,17 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>36</v>
@@ -5399,19 +5398,19 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
@@ -5422,14 +5421,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5442,24 +5441,26 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -5525,51 +5526,47 @@
         <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>36</v>
       </c>
@@ -5578,7 +5575,7 @@
         <v>36</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>36</v>
@@ -5617,33 +5614,33 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5651,13 +5648,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>36</v>
@@ -5666,13 +5663,13 @@
         <v>46</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5684,7 +5681,7 @@
         <v>36</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>36</v>
@@ -5723,16 +5720,16 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>57</v>
@@ -5746,10 +5743,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5760,7 +5757,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -5772,15 +5769,17 @@
         <v>46</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>36</v>
@@ -5829,7 +5828,7 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
@@ -5841,7 +5840,7 @@
         <v>109</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
@@ -5852,10 +5851,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5878,16 +5877,16 @@
         <v>46</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -5937,19 +5936,19 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -5960,12 +5959,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>36</v>
       </c>
@@ -5974,10 +5975,10 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>36</v>
@@ -5986,17 +5987,15 @@
         <v>46</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>36</v>
@@ -6045,7 +6044,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -6057,7 +6056,7 @@
         <v>36</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>36</v>
@@ -6071,11 +6070,9 @@
         <v>163</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>36</v>
       </c>
@@ -6087,22 +6084,22 @@
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6153,44 +6150,44 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -6202,15 +6199,17 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>36</v>
@@ -6259,19 +6258,19 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>36</v>
@@ -6282,14 +6281,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6302,24 +6301,26 @@
         <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>36</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -6385,51 +6386,47 @@
         <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>36</v>
       </c>
@@ -6438,7 +6435,7 @@
         <v>36</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>36</v>
@@ -6477,33 +6474,33 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6511,13 +6508,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>36</v>
@@ -6529,10 +6526,10 @@
         <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6544,7 +6541,7 @@
         <v>36</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>36</v>
@@ -6571,28 +6568,26 @@
         <v>36</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>57</v>
@@ -6606,12 +6601,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>36</v>
       </c>
@@ -6623,7 +6620,7 @@
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>36</v>
@@ -6677,14 +6674,16 @@
         <v>36</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>105</v>
@@ -6713,11 +6712,9 @@
         <v>170</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>36</v>
       </c>
@@ -6726,10 +6723,10 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>36</v>
@@ -6738,15 +6735,17 @@
         <v>46</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>36</v>
@@ -6795,7 +6794,7 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
@@ -6807,7 +6806,7 @@
         <v>109</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>36</v>
@@ -6821,7 +6820,7 @@
         <v>171</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6844,16 +6843,16 @@
         <v>46</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -6903,19 +6902,19 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>36</v>
@@ -6929,21 +6928,23 @@
         <v>172</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>36</v>
@@ -6952,17 +6953,15 @@
         <v>46</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>36</v>
@@ -7011,7 +7010,7 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
@@ -7023,7 +7022,7 @@
         <v>36</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>36</v>
@@ -7034,41 +7033,39 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7119,25 +7116,25 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -7145,18 +7142,18 @@
         <v>175</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>36</v>
@@ -7168,15 +7165,17 @@
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>36</v>
@@ -7225,19 +7224,19 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
@@ -7251,11 +7250,11 @@
         <v>176</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7268,24 +7267,26 @@
         <v>36</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>36</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
@@ -7351,7 +7352,7 @@
         <v>36</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -7359,43 +7360,39 @@
         <v>177</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>36</v>
       </c>
@@ -7404,7 +7401,7 @@
         <v>36</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>36</v>
@@ -7443,25 +7440,25 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -7469,7 +7466,7 @@
         <v>178</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7483,7 +7480,7 @@
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>36</v>
@@ -7492,13 +7489,13 @@
         <v>46</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7510,7 +7507,7 @@
         <v>36</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>36</v>
@@ -7537,28 +7534,26 @@
         <v>36</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>57</v>
@@ -7572,12 +7567,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>36</v>
       </c>
@@ -7589,7 +7586,7 @@
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>36</v>
@@ -7598,7 +7595,7 @@
         <v>46</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>107</v>
@@ -7643,14 +7640,16 @@
         <v>36</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>105</v>
@@ -7676,26 +7675,24 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>36</v>
@@ -7704,15 +7701,17 @@
         <v>46</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>36</v>
@@ -7761,7 +7760,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
@@ -7773,7 +7772,7 @@
         <v>109</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>36</v>
@@ -7787,7 +7786,7 @@
         <v>183</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7810,16 +7809,16 @@
         <v>46</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7869,19 +7868,19 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
@@ -7895,9 +7894,11 @@
         <v>184</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>36</v>
       </c>
@@ -7906,10 +7907,10 @@
         <v>37</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>36</v>
@@ -7918,17 +7919,15 @@
         <v>46</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>36</v>
@@ -7977,7 +7976,7 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
@@ -7989,7 +7988,7 @@
         <v>36</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>36</v>
@@ -8000,14 +7999,12 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>36</v>
       </c>
@@ -8019,22 +8016,22 @@
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8085,25 +8082,25 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -8111,18 +8108,18 @@
         <v>187</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -8134,15 +8131,17 @@
         <v>36</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>36</v>
@@ -8191,19 +8190,19 @@
         <v>36</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>36</v>
@@ -8217,11 +8216,11 @@
         <v>188</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8234,24 +8233,26 @@
         <v>36</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>36</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>36</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
@@ -8317,7 +8318,7 @@
         <v>36</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -8325,43 +8326,39 @@
         <v>189</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>36</v>
       </c>
@@ -8370,7 +8367,7 @@
         <v>36</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>36</v>
@@ -8409,25 +8406,25 @@
         <v>36</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -8435,7 +8432,7 @@
         <v>190</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8443,13 +8440,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>36</v>
@@ -8458,13 +8455,13 @@
         <v>46</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8476,7 +8473,7 @@
         <v>36</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>36</v>
@@ -8503,28 +8500,26 @@
         <v>36</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>57</v>
@@ -8543,7 +8538,9 @@
       <c r="B71" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>36</v>
       </c>
@@ -8555,7 +8552,7 @@
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>36</v>
@@ -8564,7 +8561,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>107</v>
@@ -8609,14 +8606,16 @@
         <v>36</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>105</v>
@@ -8645,11 +8644,9 @@
         <v>192</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>36</v>
       </c>
@@ -8658,10 +8655,10 @@
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>36</v>
@@ -8670,15 +8667,17 @@
         <v>46</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>36</v>
@@ -8727,7 +8726,7 @@
         <v>36</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
@@ -8739,7 +8738,7 @@
         <v>109</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>36</v>
@@ -8753,7 +8752,7 @@
         <v>193</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8776,16 +8775,16 @@
         <v>46</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -8835,19 +8834,19 @@
         <v>36</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>36</v>
@@ -8861,9 +8860,11 @@
         <v>194</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>36</v>
       </c>
@@ -8872,10 +8873,10 @@
         <v>37</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>36</v>
@@ -8884,17 +8885,15 @@
         <v>46</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>36</v>
@@ -8943,7 +8942,7 @@
         <v>36</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -8955,7 +8954,7 @@
         <v>36</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>36</v>
@@ -8966,14 +8965,12 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>36</v>
       </c>
@@ -8985,22 +8982,22 @@
         <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9051,25 +9048,25 @@
         <v>36</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -9077,18 +9074,18 @@
         <v>197</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>36</v>
@@ -9100,15 +9097,17 @@
         <v>36</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>36</v>
@@ -9157,19 +9156,19 @@
         <v>36</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>36</v>
@@ -9183,11 +9182,11 @@
         <v>198</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -9200,24 +9199,26 @@
         <v>36</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>89</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="O77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>36</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>36</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
@@ -9283,7 +9284,7 @@
         <v>36</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" hidden="true">
@@ -9291,43 +9292,39 @@
         <v>199</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>36</v>
       </c>
@@ -9336,7 +9333,7 @@
         <v>36</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>36</v>
@@ -9375,25 +9372,25 @@
         <v>36</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -9401,7 +9398,7 @@
         <v>200</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9409,13 +9406,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>36</v>
@@ -9424,13 +9421,13 @@
         <v>46</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9442,7 +9439,7 @@
         <v>36</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>36</v>
@@ -9481,16 +9478,16 @@
         <v>36</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>57</v>
@@ -9507,7 +9504,7 @@
         <v>201</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9515,13 +9512,13 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>36</v>
@@ -9530,15 +9527,17 @@
         <v>46</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>36</v>
@@ -9587,7 +9586,7 @@
         <v>36</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -9599,7 +9598,7 @@
         <v>109</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>36</v>
@@ -9610,10 +9609,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9621,13 +9620,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>36</v>
@@ -9636,16 +9635,16 @@
         <v>46</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -9695,19 +9694,19 @@
         <v>36</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>36</v>
@@ -9716,116 +9715,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL82">
+  <autoFilter ref="A1:AL81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9835,7 +9726,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="243">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>requestMessageId</t>
+  </si>
+  <si>
+    <t>The messageID coming from the request</t>
   </si>
   <si>
     <t>Parameters.parameter:requestMessageId.id</t>
@@ -6221,7 +6224,7 @@
         <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>115</v>
@@ -6298,7 +6301,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>120</v>
@@ -6404,7 +6407,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>125</v>
@@ -6512,7 +6515,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>133</v>
@@ -6622,7 +6625,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>140</v>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>143</v>
@@ -6832,13 +6835,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>143</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>74</v>
@@ -6940,7 +6943,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>148</v>
@@ -7048,7 +7051,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>153</v>
@@ -7156,13 +7159,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -7264,7 +7267,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>120</v>
@@ -7370,7 +7373,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>125</v>
@@ -7478,7 +7481,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>133</v>
@@ -7588,7 +7591,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>140</v>
@@ -7632,7 +7635,7 @@
         <v>74</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>74</v>
@@ -7694,7 +7697,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>143</v>
@@ -7720,7 +7723,7 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>145</v>
@@ -7798,13 +7801,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>143</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -7826,7 +7829,7 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>145</v>
@@ -7906,7 +7909,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>148</v>
@@ -8014,7 +8017,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>153</v>
@@ -8122,13 +8125,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
@@ -8230,7 +8233,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>120</v>
@@ -8336,7 +8339,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>125</v>
@@ -8444,7 +8447,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>133</v>
@@ -8554,7 +8557,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>140</v>
@@ -8598,7 +8601,7 @@
         <v>74</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>74</v>
@@ -8660,7 +8663,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>143</v>
@@ -8686,7 +8689,7 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>145</v>
@@ -8764,13 +8767,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>143</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>74</v>
@@ -8792,7 +8795,7 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>145</v>
@@ -8872,7 +8875,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>148</v>
@@ -8980,7 +8983,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>153</v>
@@ -9088,13 +9091,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>74</v>
@@ -9196,7 +9199,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>120</v>
@@ -9302,7 +9305,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>125</v>
@@ -9410,7 +9413,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>133</v>
@@ -9520,7 +9523,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>140</v>
@@ -9564,7 +9567,7 @@
         <v>74</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>74</v>
@@ -9626,7 +9629,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>143</v>
@@ -9732,7 +9735,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>148</v>
@@ -9758,7 +9761,7 @@
         <v>84</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>150</v>
@@ -9840,7 +9843,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>153</v>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
